--- a/data/tle/2019-11-12_CEI.xlsx
+++ b/data/tle/2019-11-12_CEI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrcunning/Projects/bsrte/data/tle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C599D94-2DCC-0B42-BBA0-05A5851DB902}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0693215-4436-3641-B10E-77C815DDFB5D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -247,9 +247,6 @@
     <t>12,4</t>
   </si>
   <si>
-    <t>4,3,3</t>
-  </si>
-  <si>
     <t>14, 3</t>
   </si>
   <si>
@@ -334,9 +331,6 @@
     <t>19,7,4,2,10</t>
   </si>
   <si>
-    <t>4,3,5</t>
-  </si>
-  <si>
     <t>6, 2, 2</t>
   </si>
   <si>
@@ -500,6 +494,12 @@
   </si>
   <si>
     <t>CEI</t>
+  </si>
+  <si>
+    <t>7,3,3</t>
+  </si>
+  <si>
+    <t>9,3,3</t>
   </si>
 </sst>
 </file>
@@ -507,7 +507,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -873,37 +873,37 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1121,8 +1121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="AC1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF3" sqref="AF3:AJ3"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="AA4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG18" sqref="AG18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1166,193 +1166,193 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="66"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="74"/>
       <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="68" t="s">
+      <c r="H1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="66"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="74"/>
       <c r="M1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="68" t="s">
+      <c r="N1" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="66"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="74"/>
       <c r="S1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="T1" s="68" t="s">
+      <c r="T1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="66"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="74"/>
       <c r="Y1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="Z1" s="68" t="s">
+      <c r="Z1" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="66"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="74"/>
       <c r="AE1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AF1" s="68" t="s">
+      <c r="AF1" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="65"/>
-      <c r="AJ1" s="66"/>
-    </row>
-    <row r="2" spans="1:36" s="79" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="73" t="s">
+      <c r="AG1" s="73"/>
+      <c r="AH1" s="73"/>
+      <c r="AI1" s="73"/>
+      <c r="AJ1" s="74"/>
+    </row>
+    <row r="2" spans="1:36" s="68" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="74">
+      <c r="B2" s="77">
         <v>43781</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="77" t="s">
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="74">
+      <c r="H2" s="77">
         <v>43781</v>
       </c>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="77" t="s">
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="74">
+      <c r="N2" s="77">
         <v>43781</v>
       </c>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="76"/>
-      <c r="S2" s="77" t="s">
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="74">
+      <c r="T2" s="77">
         <v>43781</v>
       </c>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
-      <c r="W2" s="75"/>
-      <c r="X2" s="76"/>
-      <c r="Y2" s="77" t="s">
+      <c r="U2" s="78"/>
+      <c r="V2" s="78"/>
+      <c r="W2" s="78"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="Z2" s="74">
+      <c r="Z2" s="77">
         <v>43781</v>
       </c>
-      <c r="AA2" s="75"/>
-      <c r="AB2" s="75"/>
-      <c r="AC2" s="75"/>
-      <c r="AD2" s="76"/>
-      <c r="AE2" s="78" t="s">
+      <c r="AA2" s="78"/>
+      <c r="AB2" s="78"/>
+      <c r="AC2" s="78"/>
+      <c r="AD2" s="79"/>
+      <c r="AE2" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="AF2" s="74">
+      <c r="AF2" s="77">
         <v>43781</v>
       </c>
-      <c r="AG2" s="75"/>
-      <c r="AH2" s="75"/>
-      <c r="AI2" s="75"/>
-      <c r="AJ2" s="76"/>
+      <c r="AG2" s="78"/>
+      <c r="AH2" s="78"/>
+      <c r="AI2" s="78"/>
+      <c r="AJ2" s="79"/>
     </row>
     <row r="3" spans="1:36" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="67" t="s">
-        <v>159</v>
-      </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="66"/>
+      <c r="B3" s="72" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="74"/>
       <c r="G3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="67" t="s">
-        <v>159</v>
-      </c>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="66"/>
+      <c r="H3" s="72" t="s">
+        <v>157</v>
+      </c>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="74"/>
       <c r="M3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="67" t="s">
-        <v>159</v>
-      </c>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="66"/>
+      <c r="N3" s="72" t="s">
+        <v>157</v>
+      </c>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="74"/>
       <c r="S3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="67" t="s">
-        <v>159</v>
-      </c>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="66"/>
+      <c r="T3" s="72" t="s">
+        <v>157</v>
+      </c>
+      <c r="U3" s="73"/>
+      <c r="V3" s="73"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="74"/>
       <c r="Y3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Z3" s="67" t="s">
-        <v>159</v>
-      </c>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="66"/>
+      <c r="Z3" s="72" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA3" s="73"/>
+      <c r="AB3" s="73"/>
+      <c r="AC3" s="73"/>
+      <c r="AD3" s="74"/>
       <c r="AE3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AF3" s="67" t="s">
-        <v>159</v>
-      </c>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="66"/>
+      <c r="AF3" s="72" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG3" s="73"/>
+      <c r="AH3" s="73"/>
+      <c r="AI3" s="73"/>
+      <c r="AJ3" s="74"/>
     </row>
     <row r="4" spans="1:36" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="72">
+      <c r="B4" s="69">
         <v>139</v>
       </c>
       <c r="C4" s="70"/>
@@ -1362,7 +1362,7 @@
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="69">
+      <c r="H4" s="75">
         <v>140</v>
       </c>
       <c r="I4" s="70"/>
@@ -1372,7 +1372,7 @@
       <c r="M4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="69">
+      <c r="N4" s="75">
         <v>141</v>
       </c>
       <c r="O4" s="70"/>
@@ -1382,7 +1382,7 @@
       <c r="S4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="T4" s="69">
+      <c r="T4" s="75">
         <v>142</v>
       </c>
       <c r="U4" s="70"/>
@@ -1392,7 +1392,7 @@
       <c r="Y4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Z4" s="69">
+      <c r="Z4" s="75">
         <v>143</v>
       </c>
       <c r="AA4" s="70"/>
@@ -1402,7 +1402,7 @@
       <c r="AE4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="AF4" s="69">
+      <c r="AF4" s="75">
         <v>144</v>
       </c>
       <c r="AG4" s="70"/>
@@ -2339,7 +2339,7 @@
         <v>42</v>
       </c>
       <c r="AJ14" s="24" t="s">
-        <v>75</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:36" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2362,7 +2362,7 @@
         <v>25</v>
       </c>
       <c r="I15" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J15" s="26"/>
       <c r="K15" s="12" t="s">
@@ -2418,14 +2418,14 @@
         <v>25</v>
       </c>
       <c r="AG15" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH15" s="33"/>
       <c r="AI15" s="23" t="s">
         <v>25</v>
       </c>
       <c r="AJ15" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:36" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2436,28 +2436,28 @@
         <v>9</v>
       </c>
       <c r="C16" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>79</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>80</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>82</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>9</v>
       </c>
       <c r="I16" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J16" s="12" t="s">
         <v>83</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>84</v>
       </c>
       <c r="K16" s="12" t="s">
         <v>9</v>
@@ -2472,7 +2472,7 @@
         <v>9</v>
       </c>
       <c r="O16" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P16" s="29">
         <v>95</v>
@@ -2484,16 +2484,16 @@
         <v>14</v>
       </c>
       <c r="S16" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T16" s="12" t="s">
         <v>9</v>
       </c>
       <c r="U16" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V16" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W16" s="12" t="s">
         <v>9</v>
@@ -2508,7 +2508,7 @@
         <v>9</v>
       </c>
       <c r="AA16" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AB16" s="32">
         <v>95</v>
@@ -2517,25 +2517,25 @@
         <v>1</v>
       </c>
       <c r="AD16" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AE16" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF16" s="23" t="s">
         <v>9</v>
       </c>
       <c r="AG16" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH16" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI16" s="23" t="s">
         <v>9</v>
       </c>
       <c r="AJ16" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:36" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2544,14 +2544,14 @@
         <v>24</v>
       </c>
       <c r="C17" s="43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D17" s="26"/>
       <c r="E17" s="12" t="s">
         <v>24</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="26"/>
       <c r="H17" s="42" t="s">
@@ -2570,14 +2570,14 @@
         <v>24</v>
       </c>
       <c r="O17" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P17" s="28"/>
       <c r="Q17" s="29">
         <v>2</v>
       </c>
       <c r="R17" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S17" s="26"/>
       <c r="T17" s="42" t="s">
@@ -2598,28 +2598,28 @@
         <v>24</v>
       </c>
       <c r="AA17" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AB17" s="31"/>
       <c r="AC17" s="32">
         <v>2</v>
       </c>
       <c r="AD17" s="41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AE17" s="33"/>
       <c r="AF17" s="44" t="s">
         <v>24</v>
       </c>
       <c r="AG17" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AH17" s="33"/>
       <c r="AI17" s="23" t="s">
         <v>24</v>
       </c>
       <c r="AJ17" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:36" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2628,14 +2628,14 @@
         <v>10</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D18" s="26"/>
       <c r="E18" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G18" s="26"/>
       <c r="H18" s="12" t="s">
@@ -2654,7 +2654,7 @@
         <v>10</v>
       </c>
       <c r="O18" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P18" s="28"/>
       <c r="Q18" s="29">
@@ -2682,21 +2682,21 @@
         <v>10</v>
       </c>
       <c r="AA18" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AB18" s="31"/>
       <c r="AC18" s="32">
         <v>3</v>
       </c>
       <c r="AD18" s="41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AE18" s="33"/>
       <c r="AF18" s="23" t="s">
         <v>10</v>
       </c>
       <c r="AG18" s="24" t="s">
-        <v>104</v>
+        <v>159</v>
       </c>
       <c r="AH18" s="33"/>
       <c r="AI18" s="23" t="s">
@@ -2712,21 +2712,21 @@
         <v>42</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D19" s="26"/>
       <c r="E19" s="12" t="s">
         <v>42</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G19" s="26"/>
       <c r="H19" s="12" t="s">
         <v>42</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J19" s="26"/>
       <c r="K19" s="12" t="s">
@@ -2745,7 +2745,7 @@
         <v>4</v>
       </c>
       <c r="R19" s="30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="S19" s="26"/>
       <c r="T19" s="12" t="s">
@@ -2759,35 +2759,35 @@
         <v>42</v>
       </c>
       <c r="X19" s="24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Y19" s="25"/>
       <c r="Z19" s="12" t="s">
         <v>42</v>
       </c>
       <c r="AA19" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AB19" s="31"/>
       <c r="AC19" s="32">
         <v>4</v>
       </c>
       <c r="AD19" s="41" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AE19" s="33"/>
       <c r="AF19" s="23" t="s">
         <v>42</v>
       </c>
       <c r="AG19" s="24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AH19" s="33"/>
       <c r="AI19" s="23" t="s">
         <v>42</v>
       </c>
       <c r="AJ19" s="24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:36" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2796,14 +2796,14 @@
         <v>25</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D20" s="26"/>
       <c r="E20" s="12" t="s">
         <v>25</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G20" s="26"/>
       <c r="H20" s="34" t="s">
@@ -2822,56 +2822,56 @@
         <v>25</v>
       </c>
       <c r="O20" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P20" s="36"/>
       <c r="Q20" s="29">
         <v>5</v>
       </c>
       <c r="R20" s="30" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="S20" s="26"/>
       <c r="T20" s="34" t="s">
         <v>25</v>
       </c>
       <c r="U20" s="39" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="V20" s="26"/>
       <c r="W20" s="12" t="s">
         <v>25</v>
       </c>
       <c r="X20" s="24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Y20" s="25"/>
       <c r="Z20" s="34" t="s">
         <v>25</v>
       </c>
       <c r="AA20" s="19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AB20" s="37"/>
       <c r="AC20" s="32">
         <v>5</v>
       </c>
       <c r="AD20" s="41" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AE20" s="33"/>
       <c r="AF20" s="38" t="s">
         <v>25</v>
       </c>
       <c r="AG20" s="39" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AH20" s="33"/>
       <c r="AI20" s="23" t="s">
         <v>25</v>
       </c>
       <c r="AJ20" s="24" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:36" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2882,10 +2882,10 @@
         <v>9</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>9</v>
@@ -2894,16 +2894,16 @@
         <v>25</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H21" s="12" t="s">
         <v>9</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K21" s="12" t="s">
         <v>9</v>
@@ -2918,10 +2918,10 @@
         <v>9</v>
       </c>
       <c r="O21" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P21" s="29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q21" s="29">
         <v>1</v>
@@ -2930,16 +2930,16 @@
         <v>26</v>
       </c>
       <c r="S21" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="T21" s="12" t="s">
         <v>9</v>
       </c>
       <c r="U21" s="24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="V21" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="W21" s="12" t="s">
         <v>9</v>
@@ -2954,10 +2954,10 @@
         <v>9</v>
       </c>
       <c r="AA21" s="19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AB21" s="32" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AC21" s="32">
         <v>1</v>
@@ -2966,16 +2966,16 @@
         <v>30</v>
       </c>
       <c r="AE21" s="23" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AF21" s="23" t="s">
         <v>9</v>
       </c>
       <c r="AG21" s="24" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AH21" s="23" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AI21" s="23" t="s">
         <v>9</v>
@@ -2990,14 +2990,14 @@
         <v>24</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D22" s="26"/>
       <c r="E22" s="12" t="s">
         <v>24</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G22" s="26"/>
       <c r="H22" s="42" t="s">
@@ -3018,7 +3018,7 @@
         <v>24</v>
       </c>
       <c r="O22" s="27" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P22" s="28"/>
       <c r="Q22" s="29">
@@ -3032,7 +3032,7 @@
         <v>24</v>
       </c>
       <c r="U22" s="45" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="V22" s="26"/>
       <c r="W22" s="12" t="s">
@@ -3046,21 +3046,21 @@
         <v>24</v>
       </c>
       <c r="AA22" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AB22" s="31"/>
       <c r="AC22" s="32">
         <v>2</v>
       </c>
       <c r="AD22" s="47" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AE22" s="33"/>
       <c r="AF22" s="44" t="s">
         <v>24</v>
       </c>
       <c r="AG22" s="45" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AH22" s="33"/>
       <c r="AI22" s="23" t="s">
@@ -3076,14 +3076,14 @@
         <v>10</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D23" s="26"/>
       <c r="E23" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G23" s="26"/>
       <c r="H23" s="12" t="s">
@@ -3104,7 +3104,7 @@
         <v>10</v>
       </c>
       <c r="O23" s="27" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="P23" s="28"/>
       <c r="Q23" s="29">
@@ -3118,7 +3118,7 @@
         <v>10</v>
       </c>
       <c r="U23" s="24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="V23" s="26"/>
       <c r="W23" s="12" t="s">
@@ -3132,7 +3132,7 @@
         <v>10</v>
       </c>
       <c r="AA23" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AB23" s="31"/>
       <c r="AC23" s="32">
@@ -3146,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="AG23" s="24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AH23" s="33"/>
       <c r="AI23" s="23" t="s">
@@ -3162,21 +3162,21 @@
         <v>42</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D24" s="26"/>
       <c r="E24" s="12" t="s">
         <v>42</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G24" s="26"/>
       <c r="H24" s="12" t="s">
         <v>42</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J24" s="26"/>
       <c r="K24" s="12" t="s">
@@ -3190,7 +3190,7 @@
         <v>42</v>
       </c>
       <c r="O24" s="27" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P24" s="28"/>
       <c r="Q24" s="29">
@@ -3218,7 +3218,7 @@
         <v>42</v>
       </c>
       <c r="AA24" s="19" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AB24" s="31"/>
       <c r="AC24" s="32">
@@ -3232,7 +3232,7 @@
         <v>42</v>
       </c>
       <c r="AG24" s="24" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AH24" s="33"/>
       <c r="AI24" s="23" t="s">
@@ -3248,7 +3248,7 @@
         <v>25</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D25" s="26"/>
       <c r="E25" s="12" t="s">
@@ -3262,7 +3262,7 @@
         <v>25</v>
       </c>
       <c r="I25" s="35" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J25" s="26"/>
       <c r="K25" s="12" t="s">
@@ -3276,7 +3276,7 @@
         <v>25</v>
       </c>
       <c r="O25" s="27" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="P25" s="36"/>
       <c r="Q25" s="29">
@@ -3290,7 +3290,7 @@
         <v>25</v>
       </c>
       <c r="U25" s="39" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="V25" s="26"/>
       <c r="W25" s="12" t="s">
@@ -3304,21 +3304,21 @@
         <v>25</v>
       </c>
       <c r="AA25" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AB25" s="37"/>
       <c r="AC25" s="32">
         <v>5</v>
       </c>
       <c r="AD25" s="47" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AE25" s="33"/>
       <c r="AF25" s="38" t="s">
         <v>25</v>
       </c>
       <c r="AG25" s="39" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AH25" s="33"/>
       <c r="AI25" s="23" t="s">
@@ -3330,7 +3330,7 @@
     </row>
     <row r="26" spans="1:36" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="40" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>9</v>
@@ -3339,14 +3339,14 @@
         <v>24</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F26" s="48"/>
       <c r="G26" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H26" s="12" t="s">
         <v>9</v>
@@ -3355,7 +3355,7 @@
         <v>42</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K26" s="12" t="s">
         <v>9</v>
@@ -3364,7 +3364,7 @@
         <v>10</v>
       </c>
       <c r="M26" s="40" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="N26" s="12" t="s">
         <v>9</v>
@@ -3373,14 +3373,14 @@
         <v>25</v>
       </c>
       <c r="P26" s="29" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="Q26" s="29">
         <v>1</v>
       </c>
       <c r="R26" s="50"/>
       <c r="S26" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="T26" s="12" t="s">
         <v>9</v>
@@ -3389,7 +3389,7 @@
         <v>42</v>
       </c>
       <c r="V26" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="W26" s="12" t="s">
         <v>9</v>
@@ -3398,7 +3398,7 @@
         <v>10</v>
       </c>
       <c r="Y26" s="40" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Z26" s="12" t="s">
         <v>9</v>
@@ -3407,14 +3407,14 @@
         <v>26</v>
       </c>
       <c r="AB26" s="32" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AC26" s="32">
         <v>1</v>
       </c>
       <c r="AD26" s="51"/>
       <c r="AE26" s="23" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AF26" s="23" t="s">
         <v>9</v>
@@ -3423,7 +3423,7 @@
         <v>42</v>
       </c>
       <c r="AH26" s="23" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AI26" s="23" t="s">
         <v>9</v>
@@ -3589,7 +3589,7 @@
         <v>10</v>
       </c>
       <c r="AJ28" s="24" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:36" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3650,7 +3650,7 @@
         <v>42</v>
       </c>
       <c r="AA29" s="55" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AB29" s="26"/>
       <c r="AC29" s="34" t="s">
@@ -3704,7 +3704,7 @@
         <v>25</v>
       </c>
       <c r="O30" s="59" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P30" s="57"/>
       <c r="Q30" s="58" t="s">
@@ -6826,23 +6826,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="N4:R4"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="T4:X4"/>
-    <mergeCell ref="Z4:AD4"/>
-    <mergeCell ref="Z3:AD3"/>
-    <mergeCell ref="AF3:AJ3"/>
-    <mergeCell ref="AF4:AJ4"/>
-    <mergeCell ref="T3:X3"/>
-    <mergeCell ref="Z1:AD1"/>
-    <mergeCell ref="AF1:AJ1"/>
-    <mergeCell ref="T2:X2"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="Z2:AD2"/>
-    <mergeCell ref="AF2:AJ2"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="H2:L2"/>
@@ -6850,6 +6833,23 @@
     <mergeCell ref="T1:X1"/>
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="H1:L1"/>
+    <mergeCell ref="Z1:AD1"/>
+    <mergeCell ref="AF1:AJ1"/>
+    <mergeCell ref="T2:X2"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="Z2:AD2"/>
+    <mergeCell ref="AF2:AJ2"/>
+    <mergeCell ref="T4:X4"/>
+    <mergeCell ref="Z4:AD4"/>
+    <mergeCell ref="Z3:AD3"/>
+    <mergeCell ref="AF3:AJ3"/>
+    <mergeCell ref="AF4:AJ4"/>
+    <mergeCell ref="T3:X3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="N4:R4"/>
+    <mergeCell ref="N3:R3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
